--- a/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_38.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_38.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06455612182617188</v>
+        <v>0.0006208419799804688</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03431868553161621</v>
+        <v>0.0006411075592041016</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006830692291259766</v>
+        <v>0.01830506324768066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 5), (5, 1), (1, 6), (0, 6), (5, 0), (2, 5), (4, 3), (2, 6), (4, 4), (5, 2), (5, 3), (6, 2), (6, 0), (2, 2)]</t>
+          <t>[[0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 5], [5, 1], [1, 6], [0, 6], [5, 0], [2, 5], [4, 3], [2, 6], [4, 4], [5, 2], [5, 3], [6, 2], [6, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 5), (5, 1), (1, 6), (0, 6), (5, 0), (2, 5), (4, 3), (2, 6), (4, 4), (5, 2), (5, 3), (6, 2), (6, 0), (2, 2)]</t>
+          <t>[[0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 5], [5, 1], [1, 6], [0, 6], [5, 0], [2, 5], [4, 3], [2, 6], [4, 4], [5, 2], [5, 3], [6, 2], [6, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 5), (5, 1), (1, 6), (0, 6), (5, 0), (2, 5), (4, 3), (2, 6), (4, 4), (5, 2), (5, 3), (6, 2), (0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (6, 0), (2, 2)]</t>
+          <t>[[0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 5], [5, 1], [1, 6], [0, 6], [5, 0], [2, 5], [4, 3], [2, 6], [4, 4], [5, 2], [5, 3], [6, 2], [0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [6, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3), (0, 4), (0, 5), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 6), (5, 1), (1, 6), (2, 6), (5, 0), (2, 5), (4, 3), (2, 4), (4, 4), (5, 2), (5, 3), (6, 2), (1, 1), (1, 2), (1, 3), (2, 2), (2, 0), (2, 1), (2, 3), (3, 3), (3, 1), (3, 2), (4, 2), (4, 5), (0, 0), (0, 1)]</t>
+          <t>[[0, 2], [0, 3], [0, 4], [0, 5], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 6], [5, 1], [1, 6], [2, 6], [5, 0], [2, 5], [4, 3], [2, 4], [4, 4], [5, 2], [5, 3], [6, 2], [1, 1], [1, 2], [1, 3], [2, 2], [2, 0], [2, 1], [2, 3], [3, 3], [3, 1], [3, 2], [4, 2], [4, 5], [0, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -1192,110 +1192,120 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>31</v>
+        <v>0.9980750374886868</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1657381057739258</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.03991889953613281</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="N87" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
